--- a/doc/记录表.xlsx
+++ b/doc/记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\project\code\project\CommonCtil\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A34F3CB-D17F-484A-B34B-231927D6EFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213E635F-65A3-484A-831B-EF9BE78C7C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="76">
   <si>
     <t>cryp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,41 +244,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmtStrToBin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmtStrToOct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmtStrToDec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmtStrToHex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmtStrToF32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmtStrToF64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmtBinToStrSize</t>
+  </si>
+  <si>
     <t>NC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmtStrtoF32</t>
-  </si>
-  <si>
-    <t>cmtStrtoF64</t>
-  </si>
-  <si>
-    <t>cmtStrtoE32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmtStrtoE64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmtStrToBin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmtStrToOct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmtStrToDec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmtStrToHex</t>
+    <t>NT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,8 +641,8 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,7 +1279,7 @@
         <v>25</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>61</v>
@@ -1289,7 +1290,7 @@
         <v>25</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>61</v>
@@ -1297,10 +1298,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>61</v>
@@ -1308,10 +1309,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>61</v>
@@ -1319,34 +1320,43 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B62" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
